--- a/excel_files/2.2.3.xlsx
+++ b/excel_files/2.2.3.xlsx
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t xml:space="preserve">Доля женщин, зарегистрированных случаев заболеваний анемией </t>
-  </si>
-  <si>
-    <t>2.2.3 Prevalence of anaemia in women aged 15 to 49 years, by pregnancy status (percentage)</t>
   </si>
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>Osh city</t>
+  </si>
+  <si>
+    <t>2.2.3 Proportion of women with anemia to the total population</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -450,6 +450,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -8139,7 +8142,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8152,13 +8155,13 @@
   <sheetData>
     <row r="1" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -8181,13 +8184,13 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="8">
         <v>2015</v>
@@ -8209,17 +8212,20 @@
       </c>
       <c r="J3" s="8">
         <v>2021</v>
+      </c>
+      <c r="K3" s="8">
+        <v>2022</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3">
         <v>3.4</v>
@@ -8241,18 +8247,21 @@
       </c>
       <c r="J4" s="24">
         <v>1.3</v>
+      </c>
+      <c r="K4" s="24">
+        <v>1.7</v>
       </c>
       <c r="N4" s="26"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -8261,17 +8270,18 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
       <c r="N5" s="26"/>
     </row>
     <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="7">
         <v>3.9</v>
@@ -8293,18 +8303,21 @@
       </c>
       <c r="J6" s="25">
         <v>1.5</v>
+      </c>
+      <c r="K6" s="25">
+        <v>2.2000000000000002</v>
       </c>
       <c r="N6" s="26"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="9">
         <v>3.2</v>
@@ -8326,18 +8339,21 @@
       </c>
       <c r="J7" s="25">
         <v>1.1000000000000001</v>
+      </c>
+      <c r="K7" s="25">
+        <v>1.4</v>
       </c>
       <c r="N7" s="26"/>
     </row>
     <row r="8" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -8345,17 +8361,16 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="18">
         <v>52.846005311752421</v>
@@ -8377,17 +8392,20 @@
       </c>
       <c r="J9" s="24">
         <v>35.440295222940719</v>
+      </c>
+      <c r="K9" s="24">
+        <v>41.1</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="20">
         <v>93.343001173952075</v>
@@ -8409,17 +8427,20 @@
       </c>
       <c r="J10" s="25">
         <v>59.171812568107519</v>
+      </c>
+      <c r="K10" s="25">
+        <v>65.90209110066462</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="C11" s="19" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>34</v>
       </c>
       <c r="D11" s="20">
         <v>69.843444897399891</v>
@@ -8441,17 +8462,20 @@
       </c>
       <c r="J11" s="25">
         <v>44.777330673249253</v>
+      </c>
+      <c r="K11" s="25">
+        <v>55.941036331149498</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="C12" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>37</v>
       </c>
       <c r="D12" s="20">
         <v>33.221509620128273</v>
@@ -8473,17 +8497,20 @@
       </c>
       <c r="J12" s="25">
         <v>23.062381852551987</v>
+      </c>
+      <c r="K12" s="25">
+        <v>21.263715474839199</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="20">
         <v>37.077865266841648</v>
@@ -8505,17 +8532,20 @@
       </c>
       <c r="J13" s="25">
         <v>19.815313582146977</v>
+      </c>
+      <c r="K13" s="25">
+        <v>11.351981351981353</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="20">
         <v>40.599510603588904</v>
@@ -8537,17 +8567,20 @@
       </c>
       <c r="J14" s="25">
         <v>23.537217999758717</v>
+      </c>
+      <c r="K14" s="25">
+        <v>32.279274699203526</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="20">
         <v>48.794449262792718</v>
@@ -8569,17 +8602,20 @@
       </c>
       <c r="J15" s="25">
         <v>33.438661710037174</v>
+      </c>
+      <c r="K15" s="25">
+        <v>36.890901250539024</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="20">
         <v>31.488781817296928</v>
@@ -8602,16 +8638,19 @@
       <c r="J16" s="25">
         <v>27.234744365035734</v>
       </c>
+      <c r="K16" s="25">
+        <v>32.421298573536646</v>
+      </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="20">
         <v>67.903553299492387</v>
@@ -8634,16 +8673,19 @@
       <c r="J17" s="25">
         <v>42.607395183332471</v>
       </c>
+      <c r="K17" s="25">
+        <v>43.227712137486577</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="C18" s="21" t="s">
         <v>49</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>50</v>
       </c>
       <c r="D18" s="22">
         <v>38.72057795385691</v>
@@ -8666,8 +8708,11 @@
       <c r="J18" s="23">
         <v>34.332723948811697</v>
       </c>
+      <c r="K18" s="30">
+        <v>38.737482570668021</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>

--- a/excel_files/2.2.3.xlsx
+++ b/excel_files/2.2.3.xlsx
@@ -8140,10 +8140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M15" sqref="M15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8216,6 +8213,9 @@
       <c r="K3" s="8">
         <v>2022</v>
       </c>
+      <c r="L3" s="8">
+        <v>2023</v>
+      </c>
     </row>
     <row r="4" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -8250,6 +8250,9 @@
       </c>
       <c r="K4" s="24">
         <v>1.7</v>
+      </c>
+      <c r="L4" s="24">
+        <v>1.5</v>
       </c>
       <c r="N4" s="26"/>
     </row>
@@ -8271,6 +8274,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
       <c r="N5" s="26"/>
     </row>
     <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8307,6 +8311,9 @@
       <c r="K6" s="25">
         <v>2.2000000000000002</v>
       </c>
+      <c r="L6" s="25">
+        <v>1.9</v>
+      </c>
       <c r="N6" s="26"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8342,6 +8349,9 @@
       </c>
       <c r="K7" s="25">
         <v>1.4</v>
+      </c>
+      <c r="L7" s="25">
+        <v>1.2</v>
       </c>
       <c r="N7" s="26"/>
     </row>
@@ -8361,6 +8371,9 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
+      <c r="L8" s="12">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
@@ -8396,6 +8409,7 @@
       <c r="K9" s="24">
         <v>41.1</v>
       </c>
+      <c r="L9" s="24"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
@@ -8431,6 +8445,9 @@
       <c r="K10" s="25">
         <v>65.90209110066462</v>
       </c>
+      <c r="L10" s="25">
+        <v>49.967045641786129</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
@@ -8466,6 +8483,9 @@
       <c r="K11" s="25">
         <v>55.941036331149498</v>
       </c>
+      <c r="L11" s="25">
+        <v>43.247229681176961</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
@@ -8501,6 +8521,9 @@
       <c r="K12" s="25">
         <v>21.263715474839199</v>
       </c>
+      <c r="L12" s="25">
+        <v>25.20876826722338</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
@@ -8536,6 +8559,9 @@
       <c r="K13" s="25">
         <v>11.351981351981353</v>
       </c>
+      <c r="L13" s="25">
+        <v>15.235173824130879</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
@@ -8571,6 +8597,9 @@
       <c r="K14" s="25">
         <v>32.279274699203526</v>
       </c>
+      <c r="L14" s="25">
+        <v>36.397123311699701</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
@@ -8606,6 +8635,9 @@
       <c r="K15" s="25">
         <v>36.890901250539024</v>
       </c>
+      <c r="L15" s="25">
+        <v>32.449725776965266</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
@@ -8641,8 +8673,11 @@
       <c r="K16" s="25">
         <v>32.421298573536646</v>
       </c>
+      <c r="L16" s="25">
+        <v>30.303402530401669</v>
+      </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>45</v>
       </c>
@@ -8676,8 +8711,11 @@
       <c r="K17" s="25">
         <v>43.227712137486577</v>
       </c>
+      <c r="L17" s="25">
+        <v>50.286734473057784</v>
+      </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>47</v>
       </c>
@@ -8711,8 +8749,11 @@
       <c r="K18" s="30">
         <v>38.737482570668021</v>
       </c>
+      <c r="L18" s="30">
+        <v>37.055296469020654</v>
+      </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
